--- a/mbs-perturbation/chain/svm/nearmiss/chain-svm-sigmoid-nearmiss-results.xlsx
+++ b/mbs-perturbation/chain/svm/nearmiss/chain-svm-sigmoid-nearmiss-results.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.7083333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>0.9194444444444445</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/svm/nearmiss/chain-svm-sigmoid-nearmiss-results.xlsx
+++ b/mbs-perturbation/chain/svm/nearmiss/chain-svm-sigmoid-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.8488888888888889</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.4357142857142857</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0.846153846153846</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.8666666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.125</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.6571428571428571</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>0.8533333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5885714285714286</v>
       </c>
       <c r="D7" t="n">
-        <v>0.46</v>
+        <v>0.5912895927601809</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9194444444444445</v>
+        <v>0.7616825396825397</v>
       </c>
     </row>
   </sheetData>
